--- a/biology/Botanique/Kihansia_jengiensis/Kihansia_jengiensis.xlsx
+++ b/biology/Botanique/Kihansia_jengiensis/Kihansia_jengiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kihansia jengiensis est une espèce de plantes de la famille des Triuridaceae et du genre Kihansia, décrite pour la première fois en 2015 par Moses Nsanyi Sainge et David Kenfack[1].
-Cette nouvelle espèce, découverte dans les forêts semi-décidues du sud-est du Cameroun, est la première du genre observée en Afrique centrale[1].
-Elle est considérée comme en danger critique d'extinction (CR)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kihansia jengiensis est une espèce de plantes de la famille des Triuridaceae et du genre Kihansia, décrite pour la première fois en 2015 par Moses Nsanyi Sainge et David Kenfack.
+Cette nouvelle espèce, découverte dans les forêts semi-décidues du sud-est du Cameroun, est la première du genre observée en Afrique centrale.
+Elle est considérée comme en danger critique d'extinction (CR).
 </t>
         </is>
       </c>
